--- a/ru/downloads/data-excel/9.c.1.xlsx
+++ b/ru/downloads/data-excel/9.c.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -498,16 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -518,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -536,7 +538,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -548,8 +550,9 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +586,11 @@
       <c r="K4" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -618,8 +624,11 @@
       <c r="K5" s="9">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -653,8 +662,11 @@
       <c r="K6" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="10">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -688,8 +700,11 @@
       <c r="K7" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="12">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -707,7 +722,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -719,7 +734,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -731,7 +746,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -743,7 +758,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -755,7 +770,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -767,7 +782,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -779,7 +794,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -791,7 +806,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>

--- a/ru/downloads/data-excel/9.c.1.xlsx
+++ b/ru/downloads/data-excel/9.c.1.xlsx
@@ -498,18 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -520,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -538,7 +536,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -551,8 +549,9 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,8 +588,11 @@
       <c r="L4" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -627,8 +629,11 @@
       <c r="L5" s="10">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -665,8 +670,11 @@
       <c r="L6" s="10">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -703,8 +711,11 @@
       <c r="L7" s="12">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -722,7 +733,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -734,7 +745,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -746,7 +757,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -758,7 +769,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -770,7 +781,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -782,7 +793,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -794,7 +805,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -806,7 +817,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>

--- a/ru/downloads/data-excel/9.c.1.xlsx
+++ b/ru/downloads/data-excel/9.c.1.xlsx
@@ -498,16 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -518,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -536,7 +538,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -550,8 +552,9 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,8 +594,11 @@
       <c r="M4" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -632,8 +638,11 @@
       <c r="M5" s="10">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="10">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -673,8 +682,11 @@
       <c r="M6" s="10">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -714,8 +726,11 @@
       <c r="M7" s="12">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="12">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -733,7 +748,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -745,7 +760,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -757,7 +772,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -769,7 +784,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -781,7 +796,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -793,7 +808,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -805,7 +820,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -817,7 +832,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>

--- a/ru/downloads/data-excel/9.c.1.xlsx
+++ b/ru/downloads/data-excel/9.c.1.xlsx
@@ -498,18 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -520,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -538,7 +536,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -552,9 +550,8 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,11 +591,8 @@
       <c r="M4" s="4">
         <v>2021</v>
       </c>
-      <c r="N4" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -638,11 +632,8 @@
       <c r="M5" s="10">
         <v>98</v>
       </c>
-      <c r="N5" s="10">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -682,11 +673,8 @@
       <c r="M6" s="10">
         <v>97</v>
       </c>
-      <c r="N6" s="10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -726,11 +714,8 @@
       <c r="M7" s="12">
         <v>96</v>
       </c>
-      <c r="N7" s="12">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -748,7 +733,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -760,7 +745,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -772,7 +757,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -784,7 +769,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -796,7 +781,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -808,7 +793,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -820,7 +805,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -832,7 +817,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>

--- a/ru/downloads/data-excel/9.c.1.xlsx
+++ b/ru/downloads/data-excel/9.c.1.xlsx
@@ -59,19 +59,19 @@
     <t>9.c.1 Proportion of population covered by a mobile network, by technology*</t>
   </si>
   <si>
-    <t>*по данным ГКИТС КР</t>
-  </si>
-  <si>
-    <t>*according to the SCITC KR</t>
-  </si>
-  <si>
-    <t>*КР МТБМК маалыматтары  боюнча</t>
-  </si>
-  <si>
     <t>(пайыз менен)</t>
   </si>
   <si>
     <t>9.c.1 Технологиялар боюнча бөлүнүшундө, мобилдик тарамдар менен камтылган калктын үлүшү*</t>
+  </si>
+  <si>
+    <t>*по данным МЦР КР</t>
+  </si>
+  <si>
+    <t>*according to the MDD KR</t>
+  </si>
+  <si>
+    <t>*КР СӨМ маалыматтары  боюнча</t>
   </si>
 </sst>
 </file>
@@ -498,20 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -520,9 +518,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -538,7 +536,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -553,8 +551,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,8 +596,11 @@
       <c r="N4" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -641,8 +643,11 @@
       <c r="N5" s="10">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -685,8 +690,11 @@
       <c r="N6" s="10">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="10">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -729,16 +737,19 @@
       <c r="N7" s="12">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="12">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -748,7 +759,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -760,7 +771,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -772,7 +783,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -784,7 +795,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -796,7 +807,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -808,7 +819,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -820,7 +831,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -832,7 +843,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
